--- a/thresholds/IGCSE/physical-education/physical-education-thresholds.xlsx
+++ b/thresholds/IGCSE/physical-education/physical-education-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,77 +698,77 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C7" t="n">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="D7" t="n">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="F7" t="n">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="G7" t="n">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H7" t="n">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="I7" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>200</v>
       </c>
       <c r="C8" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D8" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E8" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F8" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G8" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H8" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I8" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -821,36 +821,36 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>BX 11,82</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>200</v>
       </c>
       <c r="C10" t="n">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D10" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E10" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F10" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H10" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I10" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -862,36 +862,36 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BY 12,82</t>
+          <t>BX 11,82</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D11" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E11" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F11" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G11" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H11" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I11" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -903,48 +903,48 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>BY 12,82</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E12" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F12" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G12" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H12" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I12" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -985,7 +985,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1026,7 +1026,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>BX 11,82</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1067,7 +1067,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>BY 12,82</t>
+          <t>BX 11,82</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1108,48 +1108,48 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>BY 12,82</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>200</v>
       </c>
       <c r="C17" t="n">
+        <v>156</v>
+      </c>
+      <c r="D17" t="n">
         <v>140</v>
       </c>
-      <c r="D17" t="n">
-        <v>127</v>
-      </c>
       <c r="E17" t="n">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F17" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G17" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H17" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I17" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1190,20 +1190,20 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>200</v>
       </c>
       <c r="C19" t="n">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D19" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E19" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" t="n">
         <v>101</v>
@@ -1231,20 +1231,20 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>BY 12,82</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>200</v>
       </c>
       <c r="C20" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D20" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E20" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" t="n">
         <v>101</v>
@@ -1272,7 +1272,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>CY 12,92</t>
+          <t>BY 12,82</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1313,118 +1313,118 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>CY 12,92</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>200</v>
       </c>
       <c r="C22" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D22" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F22" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G22" t="n">
         <v>82</v>
       </c>
       <c r="H22" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I22" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C23" t="n">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="D23" t="n">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="E23" t="n">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="F23" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="G23" t="n">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="H23" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="I23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>200</v>
       </c>
       <c r="C24" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D24" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E24" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F24" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G24" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I24" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1436,7 +1436,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>BY 12,82</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1477,7 +1477,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>CY 12,92</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1518,48 +1518,48 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>BY 12,82</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>200</v>
       </c>
       <c r="C27" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" t="n">
         <v>127</v>
       </c>
       <c r="E27" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F27" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G27" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="n">
         <v>65</v>
       </c>
       <c r="I27" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>CY 12,92</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1569,67 +1569,67 @@
         <v>142</v>
       </c>
       <c r="D28" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E28" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F28" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G28" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H28" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I28" t="n">
         <v>50</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>200</v>
       </c>
       <c r="C29" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D29" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E29" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F29" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G29" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H29" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I29" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>BY 12,82</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1682,7 +1682,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>BZ 13,82</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1723,7 +1723,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>CY 12,92</t>
+          <t>BY 12,82</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1764,7 +1764,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CZ 13,92</t>
+          <t>BZ 13,82</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1805,118 +1805,118 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>CY 12,92</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>200</v>
       </c>
       <c r="C34" t="n">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D34" t="n">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E34" t="n">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F34" t="n">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G34" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H34" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I34" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>CZ 13,92</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>200</v>
       </c>
       <c r="C35" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D35" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E35" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F35" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G35" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H35" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I35" t="n">
         <v>50</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>200</v>
       </c>
       <c r="C36" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D36" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E36" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F36" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G36" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H36" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I36" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -1928,39 +1928,121 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
+          <t>AY 02,12</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>200</v>
+      </c>
+      <c r="C37" t="n">
+        <v>146</v>
+      </c>
+      <c r="D37" t="n">
+        <v>131</v>
+      </c>
+      <c r="E37" t="n">
+        <v>116</v>
+      </c>
+      <c r="F37" t="n">
+        <v>101</v>
+      </c>
+      <c r="G37" t="n">
+        <v>84</v>
+      </c>
+      <c r="H37" t="n">
+        <v>67</v>
+      </c>
+      <c r="I37" t="n">
+        <v>50</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>AZ 02,13</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>200</v>
+      </c>
+      <c r="C38" t="n">
+        <v>146</v>
+      </c>
+      <c r="D38" t="n">
+        <v>131</v>
+      </c>
+      <c r="E38" t="n">
+        <v>116</v>
+      </c>
+      <c r="F38" t="n">
+        <v>101</v>
+      </c>
+      <c r="G38" t="n">
+        <v>84</v>
+      </c>
+      <c r="H38" t="n">
+        <v>67</v>
+      </c>
+      <c r="I38" t="n">
+        <v>50</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
           <t>BX 11,82</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>200</v>
-      </c>
-      <c r="C37" t="n">
+      <c r="B39" t="n">
+        <v>200</v>
+      </c>
+      <c r="C39" t="n">
         <v>151</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D39" t="n">
         <v>136</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E39" t="n">
         <v>121</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F39" t="n">
         <v>106</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G39" t="n">
         <v>89</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H39" t="n">
         <v>72</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I39" t="n">
         <v>56</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
